--- a/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_165.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_165.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524744F9-2FBA-493B-BDAE-0C2CB8CEAF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E971DAE0-2CAE-4F9E-9D5B-BD4F029CD6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="840" windowWidth="17415" windowHeight="9705" activeTab="1" xr2:uid="{006E5AEB-EB7D-4C62-9F56-0B419183DB4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{006E5AEB-EB7D-4C62-9F56-0B419183DB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
-    <sheet name="Concetrado" sheetId="2" r:id="rId2"/>
+    <sheet name="Concentrado" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>Alumno</t>
   </si>
@@ -217,6 +217,45 @@
   </si>
   <si>
     <t>P4_Reporte</t>
+  </si>
+  <si>
+    <t>P5_Marco_Teórico</t>
+  </si>
+  <si>
+    <t>P5_Montaje</t>
+  </si>
+  <si>
+    <t>P5_Reporte</t>
+  </si>
+  <si>
+    <t>P6_Encuadre</t>
+  </si>
+  <si>
+    <t>P6_Marco_Teórico</t>
+  </si>
+  <si>
+    <t>P6_Montaje</t>
+  </si>
+  <si>
+    <t>P6_Reporte</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>P7_Encuadre</t>
+  </si>
+  <si>
+    <t>P7_Montaje</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -594,19 +633,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA01E2E-66DE-4C76-92D3-9643455E99CD}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="11.42578125" style="2"/>
+    <col min="5" max="9" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,8 +675,20 @@
       <c r="I1" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1">
+        <v>45329</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45336</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45343</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -648,8 +701,12 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M2" s="2">
+        <f>SUM(E2:L2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -662,8 +719,18 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M15" si="0">SUM(E3:L3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -676,8 +743,12 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -690,8 +761,12 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -707,8 +782,18 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -724,8 +809,21 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -738,8 +836,15 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -752,8 +857,12 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -766,8 +875,15 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -783,8 +899,12 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -797,8 +917,15 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -811,8 +938,12 @@
       <c r="D13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -825,8 +956,15 @@
       <c r="D14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -838,6 +976,13 @@
       </c>
       <c r="D15" t="s">
         <v>41</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -847,21 +992,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E32842-FE49-4FCA-AEE1-43D0B96CBACC}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -874,14 +1029,47 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -894,11 +1082,42 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
       <c r="F2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2">
+        <f>SUM(E2:O2)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -911,11 +1130,42 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
       <c r="F3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P15" si="0">SUM(E3:O3)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -928,11 +1178,42 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -945,11 +1226,42 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -962,11 +1274,42 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -979,11 +1322,42 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -996,11 +1370,42 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1013,11 +1418,42 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1030,11 +1466,42 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1047,11 +1514,42 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1064,11 +1562,42 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
       <c r="F12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1081,11 +1610,42 @@
       <c r="D13" t="s">
         <v>50</v>
       </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="F13" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1098,11 +1658,42 @@
       <c r="D14" t="s">
         <v>54</v>
       </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
       <c r="F14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1115,8 +1706,44 @@
       <c r="D15" t="s">
         <v>41</v>
       </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
       <c r="F15" s="2">
         <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_165.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_165.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E971DAE0-2CAE-4F9E-9D5B-BD4F029CD6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571CBB4-8CF4-4EDA-AD6D-7420C43F2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{006E5AEB-EB7D-4C62-9F56-0B419183DB4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{006E5AEB-EB7D-4C62-9F56-0B419183DB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
     <sheet name="Concentrado" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concentrado!$A$2:$U$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>Alumno</t>
   </si>
@@ -256,14 +259,37 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>P7_Reporte</t>
+  </si>
+  <si>
+    <t>P8_Encuadre</t>
+  </si>
+  <si>
+    <t>P7_Marco</t>
+  </si>
+  <si>
+    <t>Faltas</t>
+  </si>
+  <si>
+    <t>Compañ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -291,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,11 +325,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -635,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA01E2E-66DE-4C76-92D3-9643455E99CD}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,9 +871,12 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -878,9 +934,12 @@
       <c r="I10" s="2">
         <v>1</v>
       </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
       <c r="M10" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -992,10 +1051,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E32842-FE49-4FCA-AEE1-43D0B96CBACC}">
-  <dimension ref="A1:Q16"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="7800" ySplit="1260" topLeftCell="S3" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,742 +1074,1047 @@
     <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15" style="2" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E1" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2">
+        <v>5</v>
+      </c>
+      <c r="S1" s="2">
+        <f>SUM(E1:R1)</f>
+        <v>65</v>
+      </c>
+      <c r="T1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2">
-        <f>SUM(E2:O2)</f>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2">
+        <f>SUM(E3:R3)</f>
+        <v>49.5</v>
+      </c>
+      <c r="T3" s="4">
+        <f>(S3/$S$1)*10</f>
+        <v>7.615384615384615</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S16" si="0">SUM(E4:R4)</f>
+        <v>30</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4:T16" si="1">(S4/$S$1)*10</f>
+        <v>4.6153846153846159</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="1"/>
+        <v>5.8461538461538467</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="R7" s="2">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="1"/>
+        <v>3.384615384615385</v>
+      </c>
+      <c r="U7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3076923076923079</v>
+      </c>
+      <c r="U8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>5</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>35.5</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4615384615384608</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" ref="P3:P15" si="0">SUM(E3:O3)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="0"/>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="1"/>
+        <v>9.8461538461538467</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>5</v>
+      </c>
+      <c r="R11" s="2">
+        <v>5</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6153846153846159</v>
+      </c>
+      <c r="U11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>5</v>
+      </c>
+      <c r="R12" s="2">
+        <v>5</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6153846153846159</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>5</v>
+      </c>
+      <c r="R13" s="2">
+        <v>5</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6153846153846159</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>5</v>
+      </c>
+      <c r="R14" s="2">
+        <v>5</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="1"/>
+        <v>5.6923076923076916</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>5</v>
+      </c>
+      <c r="R15" s="2">
+        <v>5</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="1"/>
+        <v>5.3846153846153841</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>5</v>
+      </c>
+      <c r="R16" s="2">
+        <v>5</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="N9" s="2">
-        <v>5</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>5</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>5</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>5</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>5</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>5</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>5</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>5</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>5</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G16" s="2" t="s">
+      <c r="T16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6153846153846159</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:U17" xr:uid="{40E32842-FE49-4FCA-AEE1-43D0B96CBACC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Arellano Compan Carolina"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="E3:P16">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_165.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_165.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571CBB4-8CF4-4EDA-AD6D-7420C43F2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA10EF8-4632-4CCC-9BE0-B2EDD61D0D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{006E5AEB-EB7D-4C62-9F56-0B419183DB4A}"/>
   </bookViews>
@@ -1051,14 +1051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E32842-FE49-4FCA-AEE1-43D0B96CBACC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="7800" ySplit="1260" topLeftCell="S3" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,8 +1075,8 @@
     <col min="17" max="17" width="11.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="2"/>
+    <col min="20" max="20" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1260,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1516,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1644,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1708,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1772,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1836,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1964,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2028,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2092,19 +2088,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U17" xr:uid="{40E32842-FE49-4FCA-AEE1-43D0B96CBACC}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Arellano Compan Carolina"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="E3:P16">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
